--- a/design_Doc/Parameter table/condition_Library 状态表.xlsx
+++ b/design_Doc/Parameter table/condition_Library 状态表.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C56AEFF-C0DA-4D4F-B15B-6B00E83D37AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="condition_Library" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否每局执行一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主角体力值变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,34 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incidental_Turncount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_Workdirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If_Workeveryturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_Energychange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>san_Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>execute_Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,14 +62,130 @@
   </si>
   <si>
     <t>spine_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNG文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_Rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool_Now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool_EveryRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_ChangeVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san_ChangeVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否每回合执行一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止行动两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果减半两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tingzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heikulou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiajiantou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试停止行动一回合1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试停止行动一回合2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三会合后崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_Round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_Halved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果翻倍一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubling_Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shangjiantou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加1体力 持续两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jirou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合恢复10丧值 持续两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongxin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,11 +234,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -197,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,29 +565,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,51 +608,325 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-101</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -529,32 +934,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/design_Doc/Parameter table/condition_Library 状态表.xlsx
+++ b/design_Doc/Parameter table/condition_Library 状态表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C56AEFF-C0DA-4D4F-B15B-6B00E83D37AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312ED091-AE3F-4C06-A018-8DA23BA16569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,6 +683,9 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
@@ -715,6 +718,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
@@ -782,6 +788,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
@@ -812,6 +821,9 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
